--- a/Stores/Files/ContactUpload.xlsx
+++ b/Stores/Files/ContactUpload.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E232D6A2-019F-427A-9C96-236F57D22BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Company Name</t>
   </si>
@@ -149,6 +149,60 @@
   </si>
   <si>
     <t>CompanyUpload_Nov0119:08:11</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Apr16172435</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Apr16172435</t>
+  </si>
+  <si>
+    <t>CompanyUpload_May23191631</t>
+  </si>
+  <si>
+    <t>CompanyUpload_May23191631</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jun21233332</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jun21233332</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jun21233446</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jun21233446</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul22090244</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul22090244</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul22090351</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul22090351</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul23075039</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul23075039</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul23075137</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul23075137</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul23084426</t>
+  </si>
+  <si>
+    <t>CompanyUpload_Jul23084426</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1974,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -2048,7 +2102,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
